--- a/results/original/mcljcv_results.xlsx
+++ b/results/original/mcljcv_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwanhoman/Library/Mobile Documents/com~apple~CloudDocs/Research/phd_research/HiNeRV/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwanhoman/Programs/HiNeRV-dev/results/original/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{169D5E7C-0132-074C-AB59-600DA0814DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27E3CEF-EFCC-AA42-BB9C-44C55776F6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21220" yWindow="16600" windowWidth="27240" windowHeight="16440" xr2:uid="{3F4495B0-E9A3-5F47-8DE6-C2E90C6E75C0}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{3F4495B0-E9A3-5F47-8DE6-C2E90C6E75C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -144,6 +144,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -173,8 +176,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,11 +495,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A29AAA8-93E2-B64A-9D4D-20146EA12B9C}">
   <dimension ref="A1:CO7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BW1" workbookViewId="0">
-      <selection activeCell="CN10" sqref="CN10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="CL11" sqref="CL11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="63" max="64" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="66" max="67" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="69" max="70" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="72" max="73" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="75" max="76" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="78" max="79" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="81" max="82" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="84" max="85" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="87" max="88" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="90" max="91" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -874,1407 +943,1407 @@
       </c>
     </row>
     <row r="3" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>1.41E-2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>39.260399999999997</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>0.97470000000000001</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>35.079900000000002</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>0.97070000000000001</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>1.41E-2</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>36.938400000000001</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>0.98040000000000005</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>1.3899999999999999E-2</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <v>28.048500000000001</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="1">
         <v>0.84830000000000005</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="1">
         <v>1.66E-2</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="1">
         <v>28.377700000000001</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="1">
         <v>0.9214</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="1">
         <v>1.6799999999999999E-2</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="1">
         <v>30.738499999999998</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="1">
         <v>0.84740000000000004</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="1">
         <v>1.66E-2</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="1">
         <v>31.878499999999999</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="1">
         <v>0.90859999999999996</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="1">
         <v>1.6400000000000001E-2</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="1">
         <v>34.335700000000003</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="1">
         <v>0.95269999999999999</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="1">
         <v>1.6799999999999999E-2</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" s="1">
         <v>26.1111</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" s="1">
         <v>0.93179999999999996</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" s="1">
         <v>24.7088</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" s="1">
         <v>0.93369999999999997</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" s="1">
         <v>32.564399999999999</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" s="1">
         <v>0.95669999999999999</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" s="1">
         <v>1.4200000000000001E-2</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" s="1">
         <v>35.2562</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" s="1">
         <v>0.98029999999999995</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" s="1">
         <v>1.4200000000000001E-2</v>
       </c>
-      <c r="AL3">
+      <c r="AL3" s="1">
         <v>31.536999999999999</v>
       </c>
-      <c r="AM3">
+      <c r="AM3" s="1">
         <v>0.9849</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="AO3">
+      <c r="AO3" s="1">
         <v>29.246500000000001</v>
       </c>
-      <c r="AP3">
+      <c r="AP3" s="1">
         <v>0.91890000000000005</v>
       </c>
-      <c r="AQ3">
+      <c r="AQ3" s="1">
         <v>1.4200000000000001E-2</v>
       </c>
-      <c r="AR3">
+      <c r="AR3" s="1">
         <v>31.634699999999999</v>
       </c>
-      <c r="AS3">
+      <c r="AS3" s="1">
         <v>0.95209999999999995</v>
       </c>
-      <c r="AT3">
+      <c r="AT3" s="1">
         <v>1.41E-2</v>
       </c>
-      <c r="AU3">
+      <c r="AU3" s="1">
         <v>39.1447</v>
       </c>
-      <c r="AV3">
+      <c r="AV3" s="1">
         <v>0.97799999999999998</v>
       </c>
-      <c r="AW3">
+      <c r="AW3" s="1">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="AX3">
+      <c r="AX3" s="1">
         <v>31.113600000000002</v>
       </c>
-      <c r="AY3">
+      <c r="AY3" s="1">
         <v>0.91400000000000003</v>
       </c>
-      <c r="AZ3">
+      <c r="AZ3" s="1">
         <v>1.66E-2</v>
       </c>
-      <c r="BA3">
+      <c r="BA3" s="1">
         <v>30.066299999999998</v>
       </c>
-      <c r="BB3">
+      <c r="BB3" s="1">
         <v>0.95520000000000005</v>
       </c>
-      <c r="BC3">
+      <c r="BC3" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="BD3">
+      <c r="BD3" s="1">
         <v>28.4986</v>
       </c>
-      <c r="BE3">
+      <c r="BE3" s="1">
         <v>0.89780000000000004</v>
       </c>
-      <c r="BF3">
+      <c r="BF3" s="1">
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="BG3">
+      <c r="BG3" s="1">
         <v>28.932500000000001</v>
       </c>
-      <c r="BH3">
+      <c r="BH3" s="1">
         <v>0.94030000000000002</v>
       </c>
-      <c r="BI3">
+      <c r="BI3" s="1">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="BJ3">
+      <c r="BJ3" s="1">
         <v>37.393000000000001</v>
       </c>
-      <c r="BK3">
+      <c r="BK3" s="1">
         <v>0.97119999999999995</v>
       </c>
-      <c r="BL3">
+      <c r="BL3" s="1">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="BM3">
+      <c r="BM3" s="1">
         <v>27.659500000000001</v>
       </c>
-      <c r="BN3">
+      <c r="BN3" s="1">
         <v>0.87529999999999997</v>
       </c>
-      <c r="BO3">
+      <c r="BO3" s="1">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="BP3">
+      <c r="BP3" s="1">
         <v>33.307400000000001</v>
       </c>
-      <c r="BQ3">
+      <c r="BQ3" s="1">
         <v>0.96950000000000003</v>
       </c>
-      <c r="BR3">
+      <c r="BR3" s="1">
         <v>1.72E-2</v>
       </c>
-      <c r="BS3">
+      <c r="BS3" s="1">
         <v>34.435499999999998</v>
       </c>
-      <c r="BT3">
+      <c r="BT3" s="1">
         <v>0.98209999999999997</v>
       </c>
-      <c r="BU3">
+      <c r="BU3" s="1">
         <v>1.72E-2</v>
       </c>
-      <c r="BV3">
+      <c r="BV3" s="1">
         <v>23.625399999999999</v>
       </c>
-      <c r="BW3">
+      <c r="BW3" s="1">
         <v>0.89259999999999995</v>
       </c>
-      <c r="BX3">
+      <c r="BX3" s="1">
         <v>1.3899999999999999E-2</v>
       </c>
-      <c r="BY3">
+      <c r="BY3" s="1">
         <v>35.630699999999997</v>
       </c>
-      <c r="BZ3">
+      <c r="BZ3" s="1">
         <v>0.97030000000000005</v>
       </c>
-      <c r="CA3">
+      <c r="CA3" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="CB3">
+      <c r="CB3" s="1">
         <v>29.908799999999999</v>
       </c>
-      <c r="CC3">
+      <c r="CC3" s="1">
         <v>0.94630000000000003</v>
       </c>
-      <c r="CD3">
+      <c r="CD3" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="CE3">
+      <c r="CE3" s="1">
         <v>39.712200000000003</v>
       </c>
-      <c r="CF3">
+      <c r="CF3" s="1">
         <v>0.98899999999999999</v>
       </c>
-      <c r="CG3">
+      <c r="CG3" s="1">
         <v>1.72E-2</v>
       </c>
-      <c r="CH3">
+      <c r="CH3" s="1">
         <v>44.429499999999997</v>
       </c>
-      <c r="CI3">
+      <c r="CI3" s="1">
         <v>0.99039999999999995</v>
       </c>
-      <c r="CJ3">
+      <c r="CJ3" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="CK3">
+      <c r="CK3" s="1">
         <v>37.615400000000001</v>
       </c>
-      <c r="CL3">
+      <c r="CL3" s="1">
         <v>0.97970000000000002</v>
       </c>
-      <c r="CM3">
+      <c r="CM3" s="1">
         <v>1.5383333333333336E-2</v>
       </c>
-      <c r="CN3">
+      <c r="CN3" s="1">
         <v>32.572980000000008</v>
       </c>
-      <c r="CO3">
+      <c r="CO3" s="1">
         <v>0.94381000000000026</v>
       </c>
     </row>
     <row r="4" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>2.75E-2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>39.575800000000001</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>0.97599999999999998</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>2.7400000000000001E-2</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>38.670299999999997</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>0.98419999999999996</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>2.75E-2</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>38.728999999999999</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>0.98499999999999999</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>2.7400000000000001E-2</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="1">
         <v>29.376100000000001</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="1">
         <v>0.88819999999999999</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="1">
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="1">
         <v>30.739799999999999</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="1">
         <v>0.94820000000000004</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="1">
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="1">
         <v>30.7806</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="1">
         <v>0.85319999999999996</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="1">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="1">
         <v>32.929400000000001</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="1">
         <v>0.92820000000000003</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="1">
         <v>3.2099999999999997E-2</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="1">
         <v>35.511499999999998</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="1">
         <v>0.95840000000000003</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="1">
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="1">
         <v>28.563700000000001</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" s="1">
         <v>0.95960000000000001</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" s="1">
         <v>2.7400000000000001E-2</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" s="1">
         <v>30.182200000000002</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" s="1">
         <v>0.97189999999999999</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" s="1">
         <v>2.7400000000000001E-2</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" s="1">
         <v>35.337299999999999</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" s="1">
         <v>0.97489999999999999</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" s="1">
         <v>2.75E-2</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" s="1">
         <v>36.872700000000002</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ4" s="1">
         <v>0.98609999999999998</v>
       </c>
-      <c r="AK4">
+      <c r="AK4" s="1">
         <v>2.75E-2</v>
       </c>
-      <c r="AL4">
+      <c r="AL4" s="1">
         <v>33.221899999999998</v>
       </c>
-      <c r="AM4">
+      <c r="AM4" s="1">
         <v>0.98819999999999997</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" s="1">
         <v>2.7400000000000001E-2</v>
       </c>
-      <c r="AO4">
+      <c r="AO4" s="1">
         <v>31.815200000000001</v>
       </c>
-      <c r="AP4">
+      <c r="AP4" s="1">
         <v>0.95</v>
       </c>
-      <c r="AQ4">
+      <c r="AQ4" s="1">
         <v>2.7699999999999999E-2</v>
       </c>
-      <c r="AR4">
+      <c r="AR4" s="1">
         <v>33.344499999999996</v>
       </c>
-      <c r="AS4">
+      <c r="AS4" s="1">
         <v>0.96399999999999997</v>
       </c>
-      <c r="AT4">
+      <c r="AT4" s="1">
         <v>2.7400000000000001E-2</v>
       </c>
-      <c r="AU4">
+      <c r="AU4" s="1">
         <v>40.104199999999999</v>
       </c>
-      <c r="AV4">
+      <c r="AV4" s="1">
         <v>0.98080000000000001</v>
       </c>
-      <c r="AW4">
+      <c r="AW4" s="1">
         <v>3.39E-2</v>
       </c>
-      <c r="AX4">
+      <c r="AX4" s="1">
         <v>33.3444</v>
       </c>
-      <c r="AY4">
+      <c r="AY4" s="1">
         <v>0.94489999999999996</v>
       </c>
-      <c r="AZ4">
+      <c r="AZ4" s="1">
         <v>3.2399999999999998E-2</v>
       </c>
-      <c r="BA4">
+      <c r="BA4" s="1">
         <v>32.732300000000002</v>
       </c>
-      <c r="BB4">
+      <c r="BB4" s="1">
         <v>0.97460000000000002</v>
       </c>
-      <c r="BC4">
+      <c r="BC4" s="1">
         <v>2.7400000000000001E-2</v>
       </c>
-      <c r="BD4">
+      <c r="BD4" s="1">
         <v>30.7944</v>
       </c>
-      <c r="BE4">
+      <c r="BE4" s="1">
         <v>0.93540000000000001</v>
       </c>
-      <c r="BF4">
+      <c r="BF4" s="1">
         <v>3.2300000000000002E-2</v>
       </c>
-      <c r="BG4">
+      <c r="BG4" s="1">
         <v>33.045099999999998</v>
       </c>
-      <c r="BH4">
+      <c r="BH4" s="1">
         <v>0.97089999999999999</v>
       </c>
-      <c r="BI4">
+      <c r="BI4" s="1">
         <v>3.3500000000000002E-2</v>
       </c>
-      <c r="BJ4">
+      <c r="BJ4" s="1">
         <v>40.072899999999997</v>
       </c>
-      <c r="BK4">
+      <c r="BK4" s="1">
         <v>0.98140000000000005</v>
       </c>
-      <c r="BL4">
+      <c r="BL4" s="1">
         <v>3.3799999999999997E-2</v>
       </c>
-      <c r="BM4">
+      <c r="BM4" s="1">
         <v>30.2181</v>
       </c>
-      <c r="BN4">
+      <c r="BN4" s="1">
         <v>0.9274</v>
       </c>
-      <c r="BO4">
+      <c r="BO4" s="1">
         <v>3.39E-2</v>
       </c>
-      <c r="BP4">
+      <c r="BP4" s="1">
         <v>35.786499999999997</v>
       </c>
-      <c r="BQ4">
+      <c r="BQ4" s="1">
         <v>0.98170000000000002</v>
       </c>
-      <c r="BR4">
+      <c r="BR4" s="1">
         <v>3.3700000000000001E-2</v>
       </c>
-      <c r="BS4">
+      <c r="BS4" s="1">
         <v>37.195999999999998</v>
       </c>
-      <c r="BT4">
+      <c r="BT4" s="1">
         <v>0.9889</v>
       </c>
-      <c r="BU4">
+      <c r="BU4" s="1">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="BV4">
+      <c r="BV4" s="1">
         <v>25.72</v>
       </c>
-      <c r="BW4">
+      <c r="BW4" s="1">
         <v>0.93200000000000005</v>
       </c>
-      <c r="BX4">
+      <c r="BX4" s="1">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="BY4">
+      <c r="BY4" s="1">
         <v>38.561</v>
       </c>
-      <c r="BZ4">
+      <c r="BZ4" s="1">
         <v>0.98140000000000005</v>
       </c>
-      <c r="CA4">
+      <c r="CA4" s="1">
         <v>2.7400000000000001E-2</v>
       </c>
-      <c r="CB4">
+      <c r="CB4" s="1">
         <v>31.8782</v>
       </c>
-      <c r="CC4">
+      <c r="CC4" s="1">
         <v>0.96740000000000004</v>
       </c>
-      <c r="CD4">
+      <c r="CD4" s="1">
         <v>2.7300000000000001E-2</v>
       </c>
-      <c r="CE4">
+      <c r="CE4" s="1">
         <v>41.3613</v>
       </c>
-      <c r="CF4">
+      <c r="CF4" s="1">
         <v>0.99050000000000005</v>
       </c>
-      <c r="CG4">
+      <c r="CG4" s="1">
         <v>3.3700000000000001E-2</v>
       </c>
-      <c r="CH4">
+      <c r="CH4" s="1">
         <v>45.156700000000001</v>
       </c>
-      <c r="CI4">
+      <c r="CI4" s="1">
         <v>0.9919</v>
       </c>
-      <c r="CJ4">
+      <c r="CJ4" s="1">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="CK4">
+      <c r="CK4" s="1">
         <v>38.6952</v>
       </c>
-      <c r="CL4">
+      <c r="CL4" s="1">
         <v>0.98270000000000002</v>
       </c>
-      <c r="CM4">
+      <c r="CM4" s="1">
         <v>3.0059999999999993E-2</v>
       </c>
-      <c r="CN4">
+      <c r="CN4" s="1">
         <v>34.677210000000017</v>
       </c>
-      <c r="CO4">
+      <c r="CO4" s="1">
         <v>0.96160000000000023</v>
       </c>
     </row>
     <row r="5" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>5.4399999999999997E-2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>39.791200000000003</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>0.97789999999999999</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>5.4300000000000001E-2</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>41.379199999999997</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>0.99029999999999996</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>5.45E-2</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>40.329000000000001</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>0.9879</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>5.4399999999999997E-2</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1">
         <v>30.8948</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="1">
         <v>0.92530000000000001</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="1">
         <v>6.4500000000000002E-2</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="1">
         <v>32.8996</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="1">
         <v>0.96419999999999995</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="1">
         <v>6.4500000000000002E-2</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="1">
         <v>30.8809</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="1">
         <v>0.8589</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="1">
         <v>6.4500000000000002E-2</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="1">
         <v>33.8705</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="1">
         <v>0.94350000000000001</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="1">
         <v>6.4100000000000004E-2</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="1">
         <v>36.445399999999999</v>
       </c>
-      <c r="X5">
+      <c r="X5" s="1">
         <v>0.9627</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="1">
         <v>6.4699999999999994E-2</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="1">
         <v>31.249700000000001</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" s="1">
         <v>0.97689999999999999</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" s="1">
         <v>5.4399999999999997E-2</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" s="1">
         <v>33.1526</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" s="1">
         <v>0.98119999999999996</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" s="1">
         <v>5.4300000000000001E-2</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" s="1">
         <v>37.935499999999998</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" s="1">
         <v>0.98529999999999995</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" s="1">
         <v>5.4300000000000001E-2</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" s="1">
         <v>38.305799999999998</v>
       </c>
-      <c r="AJ5">
+      <c r="AJ5" s="1">
         <v>0.99029999999999996</v>
       </c>
-      <c r="AK5">
+      <c r="AK5" s="1">
         <v>5.4399999999999997E-2</v>
       </c>
-      <c r="AL5">
+      <c r="AL5" s="1">
         <v>34.736400000000003</v>
       </c>
-      <c r="AM5">
+      <c r="AM5" s="1">
         <v>0.99039999999999995</v>
       </c>
-      <c r="AN5">
+      <c r="AN5" s="1">
         <v>5.4300000000000001E-2</v>
       </c>
-      <c r="AO5">
+      <c r="AO5" s="1">
         <v>34.270299999999999</v>
       </c>
-      <c r="AP5">
+      <c r="AP5" s="1">
         <v>0.96919999999999995</v>
       </c>
-      <c r="AQ5">
+      <c r="AQ5" s="1">
         <v>5.4699999999999999E-2</v>
       </c>
-      <c r="AR5">
+      <c r="AR5" s="1">
         <v>34.647199999999998</v>
       </c>
-      <c r="AS5">
+      <c r="AS5" s="1">
         <v>0.97050000000000003</v>
       </c>
-      <c r="AT5">
+      <c r="AT5" s="1">
         <v>5.4399999999999997E-2</v>
       </c>
-      <c r="AU5">
+      <c r="AU5" s="1">
         <v>40.858400000000003</v>
       </c>
-      <c r="AV5">
+      <c r="AV5" s="1">
         <v>0.98280000000000001</v>
       </c>
-      <c r="AW5">
+      <c r="AW5" s="1">
         <v>6.7299999999999999E-2</v>
       </c>
-      <c r="AX5">
+      <c r="AX5" s="1">
         <v>35.749099999999999</v>
       </c>
-      <c r="AY5">
+      <c r="AY5" s="1">
         <v>0.96599999999999997</v>
       </c>
-      <c r="AZ5">
+      <c r="AZ5" s="1">
         <v>6.4299999999999996E-2</v>
       </c>
-      <c r="BA5">
+      <c r="BA5" s="1">
         <v>35.953600000000002</v>
       </c>
-      <c r="BB5">
+      <c r="BB5" s="1">
         <v>0.98750000000000004</v>
       </c>
-      <c r="BC5">
+      <c r="BC5" s="1">
         <v>5.4300000000000001E-2</v>
       </c>
-      <c r="BD5">
+      <c r="BD5" s="1">
         <v>33.2577</v>
       </c>
-      <c r="BE5">
+      <c r="BE5" s="1">
         <v>0.96199999999999997</v>
       </c>
-      <c r="BF5">
+      <c r="BF5" s="1">
         <v>6.4299999999999996E-2</v>
       </c>
-      <c r="BG5">
+      <c r="BG5" s="1">
         <v>36.765999999999998</v>
       </c>
-      <c r="BH5">
+      <c r="BH5" s="1">
         <v>0.98560000000000003</v>
       </c>
-      <c r="BI5">
+      <c r="BI5" s="1">
         <v>6.6600000000000006E-2</v>
       </c>
-      <c r="BJ5">
+      <c r="BJ5" s="1">
         <v>42.2256</v>
       </c>
-      <c r="BK5">
+      <c r="BK5" s="1">
         <v>0.98699999999999999</v>
       </c>
-      <c r="BL5">
+      <c r="BL5" s="1">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="BM5">
+      <c r="BM5" s="1">
         <v>33.183100000000003</v>
       </c>
-      <c r="BN5">
+      <c r="BN5" s="1">
         <v>0.96109999999999995</v>
       </c>
-      <c r="BO5">
+      <c r="BO5" s="1">
         <v>6.7100000000000007E-2</v>
       </c>
-      <c r="BP5">
+      <c r="BP5" s="1">
         <v>38.229999999999997</v>
       </c>
-      <c r="BQ5">
+      <c r="BQ5" s="1">
         <v>0.98870000000000002</v>
       </c>
-      <c r="BR5">
+      <c r="BR5" s="1">
         <v>6.6900000000000001E-2</v>
       </c>
-      <c r="BS5">
+      <c r="BS5" s="1">
         <v>39.585299999999997</v>
       </c>
-      <c r="BT5">
+      <c r="BT5" s="1">
         <v>0.99239999999999995</v>
       </c>
-      <c r="BU5">
+      <c r="BU5" s="1">
         <v>6.6799999999999998E-2</v>
       </c>
-      <c r="BV5">
+      <c r="BV5" s="1">
         <v>28.360099999999999</v>
       </c>
-      <c r="BW5">
+      <c r="BW5" s="1">
         <v>0.96209999999999996</v>
       </c>
-      <c r="BX5">
+      <c r="BX5" s="1">
         <v>5.4100000000000002E-2</v>
       </c>
-      <c r="BY5">
+      <c r="BY5" s="1">
         <v>40.613700000000001</v>
       </c>
-      <c r="BZ5">
+      <c r="BZ5" s="1">
         <v>0.98670000000000002</v>
       </c>
-      <c r="CA5">
+      <c r="CA5" s="1">
         <v>5.4300000000000001E-2</v>
       </c>
-      <c r="CB5">
+      <c r="CB5" s="1">
         <v>33.957999999999998</v>
       </c>
-      <c r="CC5">
+      <c r="CC5" s="1">
         <v>0.98009999999999997</v>
       </c>
-      <c r="CD5">
+      <c r="CD5" s="1">
         <v>5.4100000000000002E-2</v>
       </c>
-      <c r="CE5">
+      <c r="CE5" s="1">
         <v>42.539499999999997</v>
       </c>
-      <c r="CF5">
+      <c r="CF5" s="1">
         <v>0.99139999999999995</v>
       </c>
-      <c r="CG5">
+      <c r="CG5" s="1">
         <v>6.6900000000000001E-2</v>
       </c>
-      <c r="CH5">
+      <c r="CH5" s="1">
         <v>45.716799999999999</v>
       </c>
-      <c r="CI5">
+      <c r="CI5" s="1">
         <v>0.99309999999999998</v>
       </c>
-      <c r="CJ5">
+      <c r="CJ5" s="1">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="CK5">
+      <c r="CK5" s="1">
         <v>39.283099999999997</v>
       </c>
-      <c r="CL5">
+      <c r="CL5" s="1">
         <v>0.98470000000000002</v>
       </c>
-      <c r="CM5">
+      <c r="CM5" s="1">
         <v>5.9623333333333334E-2</v>
       </c>
-      <c r="CN5">
+      <c r="CN5" s="1">
         <v>36.568936666666666</v>
       </c>
-      <c r="CO5">
+      <c r="CO5" s="1">
         <v>0.97285666666666648</v>
       </c>
     </row>
     <row r="6" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>0.1094</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>40.081299999999999</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>0.98060000000000003</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>0.1095</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>43.331200000000003</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>0.99329999999999996</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>0.1096</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>41.387900000000002</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <v>0.98980000000000001</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <v>0.10970000000000001</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="1">
         <v>32.817900000000002</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="1">
         <v>0.9556</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="1">
         <v>0.13020000000000001</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="1">
         <v>34.557400000000001</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="1">
         <v>0.97330000000000005</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="1">
         <v>0.13</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="1">
         <v>31.069500000000001</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="1">
         <v>0.876</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="1">
         <v>0.13020000000000001</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="1">
         <v>34.589700000000001</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="1">
         <v>0.95399999999999996</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="1">
         <v>0.13009999999999999</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="1">
         <v>36.944600000000001</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="1">
         <v>0.96730000000000005</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="1">
         <v>0.13039999999999999</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" s="1">
         <v>33.392099999999999</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" s="1">
         <v>0.9849</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" s="1">
         <v>0.10979999999999999</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" s="1">
         <v>34.894100000000002</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" s="1">
         <v>0.98740000000000006</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" s="1">
         <v>0.1096</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" s="1">
         <v>40.282299999999999</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" s="1">
         <v>0.99099999999999999</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" s="1">
         <v>0.10929999999999999</v>
       </c>
-      <c r="AI6">
+      <c r="AI6" s="1">
         <v>40.444699999999997</v>
       </c>
-      <c r="AJ6">
+      <c r="AJ6" s="1">
         <v>0.99399999999999999</v>
       </c>
-      <c r="AK6">
+      <c r="AK6" s="1">
         <v>0.10970000000000001</v>
       </c>
-      <c r="AL6">
+      <c r="AL6" s="1">
         <v>35.549599999999998</v>
       </c>
-      <c r="AM6">
+      <c r="AM6" s="1">
         <v>0.99170000000000003</v>
       </c>
-      <c r="AN6">
+      <c r="AN6" s="1">
         <v>0.10979999999999999</v>
       </c>
-      <c r="AO6">
+      <c r="AO6" s="1">
         <v>36.633099999999999</v>
       </c>
-      <c r="AP6">
+      <c r="AP6" s="1">
         <v>0.98019999999999996</v>
       </c>
-      <c r="AQ6">
+      <c r="AQ6" s="1">
         <v>0.11</v>
       </c>
-      <c r="AR6">
+      <c r="AR6" s="1">
         <v>35.448</v>
       </c>
-      <c r="AS6">
+      <c r="AS6" s="1">
         <v>0.97499999999999998</v>
       </c>
-      <c r="AT6">
+      <c r="AT6" s="1">
         <v>0.10970000000000001</v>
       </c>
-      <c r="AU6">
+      <c r="AU6" s="1">
         <v>41.289700000000003</v>
       </c>
-      <c r="AV6">
+      <c r="AV6" s="1">
         <v>0.98509999999999998</v>
       </c>
-      <c r="AW6">
+      <c r="AW6" s="1">
         <v>0.13569999999999999</v>
       </c>
-      <c r="AX6">
+      <c r="AX6" s="1">
         <v>37.574100000000001</v>
       </c>
-      <c r="AY6">
+      <c r="AY6" s="1">
         <v>0.9768</v>
       </c>
-      <c r="AZ6">
+      <c r="AZ6" s="1">
         <v>0.1298</v>
       </c>
-      <c r="BA6">
+      <c r="BA6" s="1">
         <v>39.2363</v>
       </c>
-      <c r="BB6">
+      <c r="BB6" s="1">
         <v>0.99360000000000004</v>
       </c>
-      <c r="BC6">
+      <c r="BC6" s="1">
         <v>0.1095</v>
       </c>
-      <c r="BD6">
+      <c r="BD6" s="1">
         <v>35.855699999999999</v>
       </c>
-      <c r="BE6">
+      <c r="BE6" s="1">
         <v>0.97899999999999998</v>
       </c>
-      <c r="BF6">
+      <c r="BF6" s="1">
         <v>0.13</v>
       </c>
-      <c r="BG6">
+      <c r="BG6" s="1">
         <v>39.959099999999999</v>
       </c>
-      <c r="BH6">
+      <c r="BH6" s="1">
         <v>0.99280000000000002</v>
       </c>
-      <c r="BI6">
+      <c r="BI6" s="1">
         <v>0.13469999999999999</v>
       </c>
-      <c r="BJ6">
+      <c r="BJ6" s="1">
         <v>43.702199999999998</v>
       </c>
-      <c r="BK6">
+      <c r="BK6" s="1">
         <v>0.99029999999999996</v>
       </c>
-      <c r="BL6">
+      <c r="BL6" s="1">
         <v>0.13519999999999999</v>
       </c>
-      <c r="BM6">
+      <c r="BM6" s="1">
         <v>36.253</v>
       </c>
-      <c r="BN6">
+      <c r="BN6" s="1">
         <v>0.97960000000000003</v>
       </c>
-      <c r="BO6">
+      <c r="BO6" s="1">
         <v>0.1351</v>
       </c>
-      <c r="BP6">
+      <c r="BP6" s="1">
         <v>40.2682</v>
       </c>
-      <c r="BQ6">
+      <c r="BQ6" s="1">
         <v>0.99219999999999997</v>
       </c>
-      <c r="BR6">
+      <c r="BR6" s="1">
         <v>0.13519999999999999</v>
       </c>
-      <c r="BS6">
+      <c r="BS6" s="1">
         <v>41.438600000000001</v>
       </c>
-      <c r="BT6">
+      <c r="BT6" s="1">
         <v>0.99419999999999997</v>
       </c>
-      <c r="BU6">
+      <c r="BU6" s="1">
         <v>0.1353</v>
       </c>
-      <c r="BV6">
+      <c r="BV6" s="1">
         <v>30.840900000000001</v>
       </c>
-      <c r="BW6">
+      <c r="BW6" s="1">
         <v>0.97919999999999996</v>
       </c>
-      <c r="BX6">
+      <c r="BX6" s="1">
         <v>0.10920000000000001</v>
       </c>
-      <c r="BY6">
+      <c r="BY6" s="1">
         <v>41.942799999999998</v>
       </c>
-      <c r="BZ6">
+      <c r="BZ6" s="1">
         <v>0.98929999999999996</v>
       </c>
-      <c r="CA6">
+      <c r="CA6" s="1">
         <v>0.10970000000000001</v>
       </c>
-      <c r="CB6">
+      <c r="CB6" s="1">
         <v>36.1935</v>
       </c>
-      <c r="CC6">
+      <c r="CC6" s="1">
         <v>0.98829999999999996</v>
       </c>
-      <c r="CD6">
+      <c r="CD6" s="1">
         <v>0.10929999999999999</v>
       </c>
-      <c r="CE6">
+      <c r="CE6" s="1">
         <v>43.093200000000003</v>
       </c>
-      <c r="CF6">
+      <c r="CF6" s="1">
         <v>0.99239999999999995</v>
       </c>
-      <c r="CG6">
+      <c r="CG6" s="1">
         <v>0.1348</v>
       </c>
-      <c r="CH6">
+      <c r="CH6" s="1">
         <v>46.215400000000002</v>
       </c>
-      <c r="CI6">
+      <c r="CI6" s="1">
         <v>0.99439999999999995</v>
       </c>
-      <c r="CJ6">
+      <c r="CJ6" s="1">
         <v>0.109</v>
       </c>
-      <c r="CK6">
+      <c r="CK6" s="1">
         <v>39.747300000000003</v>
       </c>
-      <c r="CL6">
+      <c r="CL6" s="1">
         <v>0.98699999999999999</v>
       </c>
-      <c r="CM6">
+      <c r="CM6" s="1">
         <v>0.12031666666666666</v>
       </c>
-      <c r="CN6">
+      <c r="CN6" s="1">
         <v>38.16778</v>
       </c>
-      <c r="CO6">
+      <c r="CO6" s="1">
         <v>0.98027666666666646</v>
       </c>
     </row>
     <row r="7" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>0.21609999999999999</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>40.549199999999999</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>0.98409999999999997</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>0.2165</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>44.509700000000002</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>0.99470000000000003</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>0.21640000000000001</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>42.169199999999996</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <v>0.99170000000000003</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <v>0.217</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="1">
         <v>34.948799999999999</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="1">
         <v>0.97489999999999999</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="1">
         <v>0.25729999999999997</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="1">
         <v>35.704300000000003</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="1">
         <v>0.97870000000000001</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="1">
         <v>0.25629999999999997</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="1">
         <v>31.375</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="1">
         <v>0.89439999999999997</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="1">
         <v>0.25729999999999997</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="1">
         <v>35.153599999999997</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="1">
         <v>0.96260000000000001</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="1">
         <v>0.25779999999999997</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="1">
         <v>37.4253</v>
       </c>
-      <c r="X7">
+      <c r="X7" s="1">
         <v>0.97209999999999996</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" s="1">
         <v>0.25659999999999999</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" s="1">
         <v>34.907200000000003</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" s="1">
         <v>0.98919999999999997</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" s="1">
         <v>0.2165</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" s="1">
         <v>36.182099999999998</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" s="1">
         <v>0.99129999999999996</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" s="1">
         <v>0.21640000000000001</v>
       </c>
-      <c r="AF7">
+      <c r="AF7" s="1">
         <v>42.1297</v>
       </c>
-      <c r="AG7">
+      <c r="AG7" s="1">
         <v>0.99390000000000001</v>
       </c>
-      <c r="AH7">
+      <c r="AH7" s="1">
         <v>0.2157</v>
       </c>
-      <c r="AI7">
+      <c r="AI7" s="1">
         <v>42.4251</v>
       </c>
-      <c r="AJ7">
+      <c r="AJ7" s="1">
         <v>0.99609999999999999</v>
       </c>
-      <c r="AK7">
+      <c r="AK7" s="1">
         <v>0.21540000000000001</v>
       </c>
-      <c r="AL7">
+      <c r="AL7" s="1">
         <v>35.882399999999997</v>
       </c>
-      <c r="AM7">
+      <c r="AM7" s="1">
         <v>0.99180000000000001</v>
       </c>
-      <c r="AN7">
+      <c r="AN7" s="1">
         <v>0.21629999999999999</v>
       </c>
-      <c r="AO7">
+      <c r="AO7" s="1">
         <v>38.391300000000001</v>
       </c>
-      <c r="AP7">
+      <c r="AP7" s="1">
         <v>0.98580000000000001</v>
       </c>
-      <c r="AQ7">
+      <c r="AQ7" s="1">
         <v>0.21709999999999999</v>
       </c>
-      <c r="AR7">
+      <c r="AR7" s="1">
         <v>36.0914</v>
       </c>
-      <c r="AS7">
+      <c r="AS7" s="1">
         <v>0.98089999999999999</v>
       </c>
-      <c r="AT7">
+      <c r="AT7" s="1">
         <v>0.21709999999999999</v>
       </c>
-      <c r="AU7">
+      <c r="AU7" s="1">
         <v>41.761699999999998</v>
       </c>
-      <c r="AV7">
+      <c r="AV7" s="1">
         <v>0.98750000000000004</v>
       </c>
-      <c r="AW7">
+      <c r="AW7" s="1">
         <v>0.26790000000000003</v>
       </c>
-      <c r="AX7">
+      <c r="AX7" s="1">
         <v>38.902799999999999</v>
       </c>
-      <c r="AY7">
+      <c r="AY7" s="1">
         <v>0.98360000000000003</v>
       </c>
-      <c r="AZ7">
+      <c r="AZ7" s="1">
         <v>0.25590000000000002</v>
       </c>
-      <c r="BA7">
+      <c r="BA7" s="1">
         <v>42.294499999999999</v>
       </c>
-      <c r="BB7">
+      <c r="BB7" s="1">
         <v>0.99660000000000004</v>
       </c>
-      <c r="BC7">
+      <c r="BC7" s="1">
         <v>0.2167</v>
       </c>
-      <c r="BD7">
+      <c r="BD7" s="1">
         <v>38.226300000000002</v>
       </c>
-      <c r="BE7">
+      <c r="BE7" s="1">
         <v>0.98780000000000001</v>
       </c>
-      <c r="BF7">
+      <c r="BF7" s="1">
         <v>0.25659999999999999</v>
       </c>
-      <c r="BG7">
+      <c r="BG7" s="1">
         <v>42.638199999999998</v>
       </c>
-      <c r="BH7">
+      <c r="BH7" s="1">
         <v>0.99609999999999999</v>
       </c>
-      <c r="BI7">
+      <c r="BI7" s="1">
         <v>0.26650000000000001</v>
       </c>
-      <c r="BJ7">
+      <c r="BJ7" s="1">
         <v>44.967399999999998</v>
       </c>
-      <c r="BK7">
+      <c r="BK7" s="1">
         <v>0.99280000000000002</v>
       </c>
-      <c r="BL7">
+      <c r="BL7" s="1">
         <v>0.2671</v>
       </c>
-      <c r="BM7">
+      <c r="BM7" s="1">
         <v>38.781100000000002</v>
       </c>
-      <c r="BN7">
+      <c r="BN7" s="1">
         <v>0.98780000000000001</v>
       </c>
-      <c r="BO7">
+      <c r="BO7" s="1">
         <v>0.26650000000000001</v>
       </c>
-      <c r="BP7">
+      <c r="BP7" s="1">
         <v>41.971299999999999</v>
       </c>
-      <c r="BQ7">
+      <c r="BQ7" s="1">
         <v>0.99439999999999995</v>
       </c>
-      <c r="BR7">
+      <c r="BR7" s="1">
         <v>0.26729999999999998</v>
       </c>
-      <c r="BS7">
+      <c r="BS7" s="1">
         <v>42.806100000000001</v>
       </c>
-      <c r="BT7">
+      <c r="BT7" s="1">
         <v>0.99550000000000005</v>
       </c>
-      <c r="BU7">
+      <c r="BU7" s="1">
         <v>0.2671</v>
       </c>
-      <c r="BV7">
+      <c r="BV7" s="1">
         <v>33.234099999999998</v>
       </c>
-      <c r="BW7">
+      <c r="BW7" s="1">
         <v>0.98839999999999995</v>
       </c>
-      <c r="BX7">
+      <c r="BX7" s="1">
         <v>0.21690000000000001</v>
       </c>
-      <c r="BY7">
+      <c r="BY7" s="1">
         <v>42.731699999999996</v>
       </c>
-      <c r="BZ7">
+      <c r="BZ7" s="1">
         <v>0.99099999999999999</v>
       </c>
-      <c r="CA7">
+      <c r="CA7" s="1">
         <v>0.21629999999999999</v>
       </c>
-      <c r="CB7">
+      <c r="CB7" s="1">
         <v>38.581699999999998</v>
       </c>
-      <c r="CC7">
+      <c r="CC7" s="1">
         <v>0.99299999999999999</v>
       </c>
-      <c r="CD7">
+      <c r="CD7" s="1">
         <v>0.2157</v>
       </c>
-      <c r="CE7">
+      <c r="CE7" s="1">
         <v>43.581899999999997</v>
       </c>
-      <c r="CF7">
+      <c r="CF7" s="1">
         <v>0.99360000000000004</v>
       </c>
-      <c r="CG7">
+      <c r="CG7" s="1">
         <v>0.26529999999999998</v>
       </c>
-      <c r="CH7">
+      <c r="CH7" s="1">
         <v>46.2896</v>
       </c>
-      <c r="CI7">
+      <c r="CI7" s="1">
         <v>0.99470000000000003</v>
       </c>
-      <c r="CJ7">
+      <c r="CJ7" s="1">
         <v>0.21560000000000001</v>
       </c>
-      <c r="CK7">
+      <c r="CK7" s="1">
         <v>40.282200000000003</v>
       </c>
-      <c r="CL7">
+      <c r="CL7" s="1">
         <v>0.98929999999999996</v>
       </c>
-      <c r="CM7">
+      <c r="CM7" s="1">
         <v>0.2375733333333333</v>
       </c>
-      <c r="CN7">
+      <c r="CN7" s="1">
         <v>39.496496666666673</v>
       </c>
-      <c r="CO7">
+      <c r="CO7" s="1">
         <v>0.98514333333333326</v>
       </c>
     </row>
